--- a/excel_files/4.2.2.xlsx
+++ b/excel_files/4.2.2.xlsx
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -585,13 +585,13 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -634,8 +634,11 @@
       <c r="N4" s="14">
         <v>2019</v>
       </c>
+      <c r="O4" s="14">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
@@ -678,8 +681,11 @@
       <c r="N5" s="11">
         <v>77.599999999999994</v>
       </c>
+      <c r="O5" s="11">
+        <v>83.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
   </sheetData>

--- a/excel_files/4.2.2.xlsx
+++ b/excel_files/4.2.2.xlsx
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -585,13 +585,13 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -637,8 +637,11 @@
       <c r="O4" s="14">
         <v>2020</v>
       </c>
+      <c r="P4" s="14">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
@@ -684,8 +687,11 @@
       <c r="O5" s="11">
         <v>83.3</v>
       </c>
+      <c r="P5" s="11">
+        <v>80.900000000000006</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
   </sheetData>

--- a/excel_files/4.2.2.xlsx
+++ b/excel_files/4.2.2.xlsx
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -585,13 +585,13 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -640,8 +640,11 @@
       <c r="P4" s="14">
         <v>2021</v>
       </c>
+      <c r="Q4" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="P5" s="11">
         <v>80.900000000000006</v>
       </c>
+      <c r="Q5" s="11">
+        <v>64.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
   </sheetData>

--- a/excel_files/4.2.2.xlsx
+++ b/excel_files/4.2.2.xlsx
@@ -40,16 +40,16 @@
     <t>4.2.2 Уровень участия в организованных видах обучения (за один год до достижения официального возраста поступления в школу)</t>
   </si>
   <si>
-    <t>Уровень участия в организованных видах обучения (за один год до достижения официального возраста поступления в школу)</t>
-  </si>
-  <si>
-    <t>Participation rate in organized learning (one year before the official primary entry age)</t>
-  </si>
-  <si>
     <t>4.2.2 Уюштурулган окутуулардын түрлөрүнө катышуунун деңгээли (мектепке кире турган расмий жаш куракка чыкканга чейинки бир жыл үчүн)</t>
   </si>
   <si>
-    <t>Уюштурулган окутуулардын түрлөрүнө катышуунун деңгээли (мектепке кире турган расмий жаш куракка чыкканга чейинки бир жыл үчүн)</t>
+    <t>Кыргыз Республикасы</t>
+  </si>
+  <si>
+    <t>Кыргызская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyz Republic </t>
   </si>
 </sst>
 </file>
@@ -547,23 +547,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="1" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>7</v>
@@ -573,7 +569,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -585,13 +581,13 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -643,16 +639,19 @@
       <c r="Q4" s="14">
         <v>2022</v>
       </c>
+      <c r="R4" s="14">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="10">
         <v>8.0699959461807236</v>
@@ -696,8 +695,11 @@
       <c r="Q5" s="11">
         <v>64.2</v>
       </c>
+      <c r="R5" s="11">
+        <v>53.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
   </sheetData>
